--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\blondblausuperschlau\praxisseminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23018" windowHeight="8498" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Meeting der Projektgruppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektinitiative </t>
+  </si>
+  <si>
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t>Hintergrundinformationen</t>
+  </si>
+  <si>
+    <t>Konkurrenzanalyse</t>
   </si>
 </sst>
 </file>
@@ -716,9 +728,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="10.69921875"/>
+    <col min="1" max="1025" width="10.6875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -731,21 +743,21 @@
   <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.796875" style="1"/>
-    <col min="3" max="3" width="20.19921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="2" max="2" width="24.8125" style="1"/>
+    <col min="3" max="3" width="20.1875" style="1"/>
+    <col min="4" max="4" width="27.6875" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.69921875" style="1"/>
-    <col min="7" max="7" width="19.296875" style="1"/>
-    <col min="8" max="8" width="14.796875" style="1"/>
-    <col min="9" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="23.6875" style="1"/>
+    <col min="7" max="7" width="19.3125" style="1"/>
+    <col min="8" max="8" width="14.8125" style="1"/>
+    <col min="9" max="1025" width="23.6875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="19.05" customHeight="1">
@@ -1774,7 +1786,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="98" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +6941,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="21" hidden="1">
+    <row r="8" spans="1:1024" ht="20.65" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7955,7 +7967,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.65">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -8989,7 +9001,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="31.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -8998,6 +9010,9 @@
       </c>
       <c r="C10" s="14">
         <v>3.125E-2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1024">
@@ -9010,8 +9025,11 @@
       <c r="C11" s="14">
         <v>3.125E-2</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:1024" ht="31.2">
+    <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -9021,8 +9039,11 @@
       <c r="C12" s="14">
         <v>0.16666666666666666</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:1024" ht="31.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -9032,8 +9053,11 @@
       <c r="C13" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:1024" ht="31.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -9042,6 +9066,9 @@
       </c>
       <c r="C14" s="14">
         <v>3.125E-2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1024">
@@ -9054,8 +9081,11 @@
       <c r="C15" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:1024" ht="31.2">
+    <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -9065,8 +9095,11 @@
       <c r="C16" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -9076,8 +9109,11 @@
       <c r="C17" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -9087,8 +9123,11 @@
       <c r="C18" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -9098,8 +9137,11 @@
       <c r="C19" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="31.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -9110,7 +9152,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -9121,7 +9163,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -9132,7 +9174,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -9140,7 +9182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -9165,16 +9207,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="1"/>
-    <col min="2" max="2" width="24.796875" style="1"/>
-    <col min="3" max="3" width="17.796875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="33.6875" style="1"/>
+    <col min="2" max="2" width="24.8125" style="1"/>
+    <col min="3" max="3" width="17.8125" style="1"/>
+    <col min="4" max="4" width="27.6875" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.19921875" style="1"/>
-    <col min="7" max="7" width="14.796875" style="1"/>
-    <col min="8" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="36.1875" style="1"/>
+    <col min="7" max="7" width="14.8125" style="1"/>
+    <col min="8" max="1025" width="23.6875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10203,7 +10245,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10307,7 +10349,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="21">
+    <row r="8" spans="1:1024" ht="20.65">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10316,7 +10358,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.65">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Projekt: Relaunch RZ-Website</t>
-  </si>
-  <si>
-    <t>Letzte Aktualisierung: 06.07.2015</t>
   </si>
   <si>
     <t>Kickoff-Meeting</t>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>Konkurrenzanalyse</t>
+  </si>
+  <si>
+    <t>Präsentationen</t>
+  </si>
+  <si>
+    <t>Analyse des Ist-Zustands</t>
+  </si>
+  <si>
+    <t>Letzte Aktualisierung: 07.07.2015</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
@@ -3861,7 +3867,7 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9003,191 +9009,206 @@
     </row>
     <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14">
         <v>3.125E-2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1024">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14">
         <v>3.125E-2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14">
         <v>0.16666666666666666</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="14">
         <v>3.125E-2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1024">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="14">
         <v>0.14583333333333334</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hase\Desktop\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23018" windowHeight="8498" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Letzte Aktualisierung: 07.07.2015</t>
+  </si>
+  <si>
+    <t>Dominik Bauer, Fabian Huth, Johannes Vogl</t>
+  </si>
+  <si>
+    <t>Contextual Inquiry Videoauswertung</t>
+  </si>
+  <si>
+    <t>Contextual Inquiry Auswertung Mitschrift</t>
+  </si>
+  <si>
+    <t>Dominik Bauer, Ben Häring</t>
   </si>
 </sst>
 </file>
@@ -734,9 +746,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1025" width="10.6875"/>
+    <col min="1" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -746,24 +758,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK24"/>
+  <dimension ref="A1:AMK27"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.8125" style="1"/>
-    <col min="3" max="3" width="20.1875" style="1"/>
-    <col min="4" max="4" width="27.6875" style="1"/>
+    <col min="2" max="2" width="24.796875" style="1"/>
+    <col min="3" max="3" width="20.19921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.6875" style="1"/>
-    <col min="7" max="7" width="19.3125" style="1"/>
-    <col min="8" max="8" width="14.8125" style="1"/>
-    <col min="9" max="1025" width="23.6875" style="1"/>
+    <col min="6" max="6" width="23.69921875" style="1"/>
+    <col min="7" max="7" width="19.296875" style="1"/>
+    <col min="8" max="8" width="14.796875" style="1"/>
+    <col min="9" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="19.05" customHeight="1">
@@ -1792,7 +1804,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="98" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6947,7 +6959,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.65" hidden="1">
+    <row r="8" spans="1:1024" ht="21" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7973,7 +7985,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.65">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9007,7 +9019,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" ht="31.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9049,7 +9061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" ht="31.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9063,7 +9075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="31.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9091,7 +9103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="31.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9147,7 +9159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="31.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9175,7 +9187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9211,6 +9223,48 @@
         <v>34</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="31.2">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.2">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9228,16 +9282,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.6875" style="1"/>
-    <col min="2" max="2" width="24.8125" style="1"/>
-    <col min="3" max="3" width="17.8125" style="1"/>
-    <col min="4" max="4" width="27.6875" style="1"/>
+    <col min="1" max="1" width="33.69921875" style="1"/>
+    <col min="2" max="2" width="24.796875" style="1"/>
+    <col min="3" max="3" width="17.796875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.1875" style="1"/>
-    <col min="7" max="7" width="14.8125" style="1"/>
-    <col min="8" max="1025" width="23.6875" style="1"/>
+    <col min="6" max="6" width="36.19921875" style="1"/>
+    <col min="7" max="7" width="14.796875" style="1"/>
+    <col min="8" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10266,7 +10320,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10370,7 +10424,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.65">
+    <row r="8" spans="1:1024" ht="21">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10379,7 +10433,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.65">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hase\Desktop\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Konkurrenzanalyse deutscher RZ-Websites</t>
   </si>
   <si>
-    <t>Contextual Inquiry</t>
-  </si>
-  <si>
     <t>Alle Teammitglieder beteiligt</t>
   </si>
   <si>
@@ -109,12 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">Johannes Vogl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Analyse der RZ-Website </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piwik-Analyse </t>
   </si>
   <si>
     <t>Meeting der Projektgruppe</t>
@@ -138,9 +129,6 @@
     <t>Analyse des Ist-Zustands</t>
   </si>
   <si>
-    <t>Letzte Aktualisierung: 07.07.2015</t>
-  </si>
-  <si>
     <t>Dominik Bauer, Fabian Huth, Johannes Vogl</t>
   </si>
   <si>
@@ -151,6 +139,21 @@
   </si>
   <si>
     <t>Dominik Bauer, Ben Häring</t>
+  </si>
+  <si>
+    <t>Contextual Inquiry (Proband 1-6)</t>
+  </si>
+  <si>
+    <t>Contextual Inquiry (Proband 7-20)</t>
+  </si>
+  <si>
+    <t>Content Analyse der RZ-Website Teil 1</t>
+  </si>
+  <si>
+    <t>Piwik-Analyse (Ebene 1 +2)</t>
+  </si>
+  <si>
+    <t>Letzte Aktualisierung: 08.07.2015</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -3879,7 +3882,7 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9024,13 +9027,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="14">
         <v>3.125E-2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1024">
@@ -9038,13 +9041,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14">
         <v>3.125E-2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="31.2">
@@ -9052,13 +9055,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="14">
         <v>0.16666666666666666</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="31.2">
@@ -9066,13 +9069,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="31.2">
@@ -9080,13 +9083,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="14">
         <v>3.125E-2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1024">
@@ -9094,13 +9097,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1024" ht="31.2">
@@ -9108,13 +9111,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9122,13 +9125,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9136,13 +9139,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9150,41 +9153,41 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="14">
         <v>0.14583333333333334</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.2">
@@ -9192,77 +9195,83 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="14">
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="14">
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.2">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" s="14">
         <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -150,10 +150,31 @@
     <t>Content Analyse der RZ-Website Teil 1</t>
   </si>
   <si>
-    <t>Piwik-Analyse (Ebene 1 +2)</t>
+    <t>Letzte Aktualisierung: 10.07.2015</t>
   </si>
   <si>
-    <t>Letzte Aktualisierung: 08.07.2015</t>
+    <t>Analyse des SRS-Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedikt Häring, Johannes Vogl </t>
+  </si>
+  <si>
+    <t>SRS-Dokument erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung der nächsten Projektschritte </t>
+  </si>
+  <si>
+    <t>Content Analyse der RZ-Website Teil 2</t>
+  </si>
+  <si>
+    <t>Piwik-Analyse (Seitenansichten: Ebene 3)</t>
+  </si>
+  <si>
+    <t>Piwik-Analyse (Seitenansichten: Ebene 1 +2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piwik-Analyse (Seitenansichten Visualisierung) </t>
   </si>
 </sst>
 </file>
@@ -761,11 +782,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK27"/>
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -3882,7 +3903,7 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9220,7 +9241,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -9234,43 +9255,124 @@
     </row>
     <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C25" s="14">
-        <v>0.33333333333333331</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.2">
       <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="14">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.2">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C28" s="14">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C29" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.2">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="14">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="14">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabi\workspace\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="kategorien" localSheetId="2">#REF!</definedName>
     <definedName name="kategorien">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -770,9 +770,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="10.69921875"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -786,23 +786,23 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.796875" style="1"/>
-    <col min="3" max="3" width="20.19921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="20.25" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.69921875" style="1"/>
-    <col min="7" max="7" width="19.296875" style="1"/>
-    <col min="8" max="8" width="14.796875" style="1"/>
-    <col min="9" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="23.75" style="1"/>
+    <col min="7" max="7" width="19.25" style="1"/>
+    <col min="8" max="8" width="14.75" style="1"/>
+    <col min="9" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.05" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1828,7 +1828,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.05" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6983,7 +6983,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="21" hidden="1">
+    <row r="8" spans="1:1024" ht="20.25" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8009,7 +8009,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9043,7 +9043,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="31.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="31.2">
+    <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="31.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="31.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="31.2">
+    <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
+    <row r="25" spans="1:4" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2">
+    <row r="28" spans="1:4" ht="31.5">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -9343,6 +9343,9 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C31" s="14">
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -9393,16 +9396,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="1"/>
-    <col min="2" max="2" width="24.796875" style="1"/>
-    <col min="3" max="3" width="17.796875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="33.75" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="17.75" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.19921875" style="1"/>
-    <col min="7" max="7" width="14.796875" style="1"/>
-    <col min="8" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="36.25" style="1"/>
+    <col min="7" max="7" width="14.75" style="1"/>
+    <col min="8" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10431,7 +10434,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10535,7 +10538,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="21">
+    <row r="8" spans="1:1024" ht="20.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10544,7 +10547,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabi\workspace\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hase\Desktop\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t xml:space="preserve">Piwik-Analyse (Seitenansichten Visualisierung) </t>
+  </si>
+  <si>
+    <t>SRS Template anpassen</t>
+  </si>
+  <si>
+    <t>SRS schreiben</t>
   </si>
 </sst>
 </file>
@@ -770,9 +776,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1025" width="10.75"/>
+    <col min="1" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -782,27 +788,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK33"/>
+  <dimension ref="A1:AMK35"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="20.25" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="20.19921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.75" style="1"/>
-    <col min="7" max="7" width="19.25" style="1"/>
-    <col min="8" max="8" width="14.75" style="1"/>
-    <col min="9" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="23.69921875" style="1"/>
+    <col min="7" max="7" width="19.19921875" style="1"/>
+    <col min="8" max="8" width="14.69921875" style="1"/>
+    <col min="9" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1828,7 +1834,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +5963,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6983,7 +6989,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25" hidden="1">
+    <row r="8" spans="1:1024" ht="21" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8009,7 +8015,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9043,7 +9049,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" ht="31.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9085,7 +9091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" ht="31.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="31.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9127,7 +9133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="31.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9197,7 +9203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="31.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -9211,7 +9217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9253,7 +9259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5">
+    <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -9267,7 +9273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="31.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -9281,7 +9287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="31.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9295,7 +9301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5">
+    <row r="28" spans="1:4" ht="31.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="31.2">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -9377,6 +9383,34 @@
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -9396,16 +9430,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.75" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="17.75" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="1" max="1" width="33.69921875" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="17.69921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.25" style="1"/>
-    <col min="7" max="7" width="14.75" style="1"/>
-    <col min="8" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="36.19921875" style="1"/>
+    <col min="7" max="7" width="14.69921875" style="1"/>
+    <col min="8" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10434,7 +10468,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10538,7 +10572,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25">
+    <row r="8" spans="1:1024" ht="21">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10547,7 +10581,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hase\Desktop\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -283,7 +280,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -776,9 +773,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="10.69921875"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -790,25 +787,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK35"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="20.19921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="20.25" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.69921875" style="1"/>
-    <col min="7" max="7" width="19.19921875" style="1"/>
-    <col min="8" max="8" width="14.69921875" style="1"/>
-    <col min="9" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="23.75" style="1"/>
+    <col min="7" max="7" width="19.25" style="1"/>
+    <col min="8" max="8" width="14.75" style="1"/>
+    <col min="9" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1834,7 +1831,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5963,7 +5960,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6989,7 +6986,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="21" hidden="1">
+    <row r="8" spans="1:1024" ht="20.25" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8015,7 +8012,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9049,7 +9046,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="31.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9077,7 +9074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="31.2">
+    <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9091,7 +9088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="31.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9105,7 +9102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="31.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9133,7 +9130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="31.2">
+    <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9189,7 +9186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9203,7 +9200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -9217,7 +9214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9239,7 +9236,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="14">
-        <v>2.7777777777777779E-3</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>31</v>
@@ -9253,13 +9250,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="14">
-        <v>6.9444444444444447E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
+    <row r="25" spans="1:4" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -9267,13 +9264,13 @@
         <v>41</v>
       </c>
       <c r="C25" s="14">
-        <v>6.9444444444444447E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -9281,13 +9278,13 @@
         <v>20</v>
       </c>
       <c r="C26" s="14">
-        <v>6.9444444444444447E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9301,7 +9298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2">
+    <row r="28" spans="1:4" ht="31.5">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9329,7 +9326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -9337,7 +9334,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="14">
-        <v>3.4722222222222224E-4</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
@@ -9351,7 +9348,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="14">
-        <v>2.0833333333333333E-3</v>
+        <v>0.125</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -9365,7 +9362,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="14">
-        <v>1.0416666666666667E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
@@ -9379,7 +9376,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="14">
-        <v>6.9444444444444447E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -9430,16 +9427,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="17.69921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="33.75" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="17.75" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.19921875" style="1"/>
-    <col min="7" max="7" width="14.69921875" style="1"/>
-    <col min="8" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="36.25" style="1"/>
+    <col min="7" max="7" width="14.75" style="1"/>
+    <col min="8" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10468,7 +10465,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10572,7 +10569,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="21">
+    <row r="8" spans="1:1024" ht="20.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10581,7 +10578,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>SRS schreiben</t>
+  </si>
+  <si>
+    <t>Alle Teammitglieder</t>
   </si>
 </sst>
 </file>
@@ -785,11 +788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK35"/>
+  <dimension ref="A1:AMK36"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -9410,6 +9413,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Alle Teammitglieder</t>
+  </si>
+  <si>
+    <t>Piwik-Analyse (Seitentitel 1-5)</t>
   </si>
 </sst>
 </file>
@@ -776,9 +779,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1025" width="10.75"/>
+    <col min="1" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -788,27 +791,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK36"/>
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="20.25" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="20.19921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.75" style="1"/>
-    <col min="7" max="7" width="19.25" style="1"/>
-    <col min="8" max="8" width="14.75" style="1"/>
-    <col min="9" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="23.69921875" style="1"/>
+    <col min="7" max="7" width="19.19921875" style="1"/>
+    <col min="8" max="8" width="14.69921875" style="1"/>
+    <col min="9" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1834,7 +1837,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5963,7 +5966,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6989,7 +6992,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25" hidden="1">
+    <row r="8" spans="1:1024" ht="21" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8015,7 +8018,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9049,7 +9052,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" ht="31.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" ht="31.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="31.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9133,7 +9136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="31.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="31.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9259,7 +9262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5">
+    <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="31.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="31.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9301,7 +9304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5">
+    <row r="28" spans="1:4" ht="31.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="31.2">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -9425,6 +9428,20 @@
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -9444,16 +9461,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.75" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="17.75" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="1" max="1" width="33.69921875" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="17.69921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.25" style="1"/>
-    <col min="7" max="7" width="14.75" style="1"/>
-    <col min="8" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="36.19921875" style="1"/>
+    <col min="7" max="7" width="14.69921875" style="1"/>
+    <col min="8" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10482,7 +10499,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10586,7 +10603,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25">
+    <row r="8" spans="1:1024" ht="21">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10595,7 +10612,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hase\Desktop\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -791,11 +791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK37"/>
+  <dimension ref="A1:AMK38"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9444,6 +9444,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -791,11 +791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK38"/>
+  <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9458,6 +9458,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="31.2">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -791,11 +791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
+  <dimension ref="A1:AMK38"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9458,20 +9458,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="14">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -791,11 +791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK38"/>
+  <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9458,6 +9458,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="31.2">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hase\Desktop\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Piwik-Analyse (Seitentitel 1-5)</t>
+  </si>
+  <si>
+    <t>Dominik Bauer, Benedikt Häring, Fabian Huth</t>
   </si>
 </sst>
 </file>
@@ -779,9 +782,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="10.69921875"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -791,27 +794,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="20.19921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="20.25" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.69921875" style="1"/>
-    <col min="7" max="7" width="19.19921875" style="1"/>
-    <col min="8" max="8" width="14.69921875" style="1"/>
-    <col min="9" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="23.75" style="1"/>
+    <col min="7" max="7" width="19.25" style="1"/>
+    <col min="8" max="8" width="14.75" style="1"/>
+    <col min="9" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1837,7 +1840,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5966,7 +5969,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6992,7 +6995,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="21" hidden="1">
+    <row r="8" spans="1:1024" ht="20.25" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8018,7 +8021,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9052,7 +9055,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="31.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9080,7 +9083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="31.2">
+    <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="31.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="31.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9136,7 +9139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="31.2">
+    <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9262,7 +9265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
+    <row r="25" spans="1:4" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -9290,7 +9293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2">
+    <row r="28" spans="1:4" ht="31.5">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2">
+    <row r="39" spans="1:4" ht="31.5">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -9469,6 +9472,20 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9489,16 +9506,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="17.69921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="33.75" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="17.75" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.19921875" style="1"/>
-    <col min="7" max="7" width="14.69921875" style="1"/>
-    <col min="8" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="36.25" style="1"/>
+    <col min="7" max="7" width="14.75" style="1"/>
+    <col min="8" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10527,7 +10544,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10631,7 +10648,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="21">
+    <row r="8" spans="1:1024" ht="20.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10640,7 +10657,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Content Analyse der RZ-Website Teil 1</t>
   </si>
   <si>
-    <t>Letzte Aktualisierung: 10.07.2015</t>
-  </si>
-  <si>
     <t>Analyse des SRS-Templates</t>
   </si>
   <si>
@@ -190,6 +187,15 @@
   </si>
   <si>
     <t>Dominik Bauer, Benedikt Häring, Fabian Huth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS überarbeiten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektplanung </t>
+  </si>
+  <si>
+    <t>Letzte Aktualisierung: 20.07.2015</t>
   </si>
 </sst>
 </file>
@@ -782,9 +788,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1025" width="10.75"/>
+    <col min="1" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -794,27 +800,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK40"/>
+  <dimension ref="A1:AMK41"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="20.25" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="20.19921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.75" style="1"/>
-    <col min="7" max="7" width="19.25" style="1"/>
-    <col min="8" max="8" width="14.75" style="1"/>
-    <col min="9" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="23.69921875" style="1"/>
+    <col min="7" max="7" width="19.19921875" style="1"/>
+    <col min="8" max="8" width="14.69921875" style="1"/>
+    <col min="9" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1840,7 +1846,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3915,7 +3921,7 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5969,7 +5975,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6995,7 +7001,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25" hidden="1">
+    <row r="8" spans="1:1024" ht="21" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8021,7 +8027,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9055,7 +9061,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" ht="31.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9083,7 +9089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" ht="31.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9111,7 +9117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="31.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="31.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="31.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -9223,7 +9229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -9265,23 +9271,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5">
+    <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C25" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.2">
+      <c r="A26" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -9293,7 +9299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="31.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9307,7 +9313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5">
+    <row r="28" spans="1:4" ht="31.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="31.2">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -9351,7 +9357,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
@@ -9365,7 +9371,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -9379,7 +9385,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -9393,7 +9399,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -9407,7 +9413,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
@@ -9421,10 +9427,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C36" s="14">
         <v>0.16666666666666666</v>
@@ -9435,7 +9441,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>
@@ -9449,7 +9455,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -9461,12 +9467,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5">
+    <row r="39" spans="1:4" ht="31.2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="14">
         <v>4.1666666666666664E-2</v>
@@ -9475,18 +9481,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5">
+    <row r="40" spans="1:4" ht="31.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.2">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9506,16 +9526,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.75" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="17.75" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="1" max="1" width="33.69921875" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="17.69921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.25" style="1"/>
-    <col min="7" max="7" width="14.75" style="1"/>
-    <col min="8" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="36.19921875" style="1"/>
+    <col min="7" max="7" width="14.69921875" style="1"/>
+    <col min="8" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -10544,7 +10564,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -10648,7 +10668,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25">
+    <row r="8" spans="1:1024" ht="21">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10657,7 +10677,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Letzte Aktualisierung: 20.07.2015</t>
+  </si>
+  <si>
+    <t>SRS Update</t>
+  </si>
+  <si>
+    <t>Zwischenpräsentation erstellen</t>
+  </si>
+  <si>
+    <t>Contextual Inquiry Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Dominik Bauer, Fabian Huth</t>
   </si>
 </sst>
 </file>
@@ -800,11 +812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK41"/>
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9509,6 +9521,56 @@
         <v>53</v>
       </c>
     </row>
+    <row r="42" spans="1:4" ht="31.2">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.2">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Dominik Bauer, Fabian Huth</t>
+  </si>
+  <si>
+    <t>Vorbereitung Contextual Inquiry</t>
   </si>
 </sst>
 </file>
@@ -812,11 +815,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK45"/>
+  <dimension ref="A1:AMK47"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="9" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9551,25 +9554,42 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="C44" s="14">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.2">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>Vorbereitung Contextual Inquiry</t>
+  </si>
+  <si>
+    <t>Zusammenfassung CI Mitarbeiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Sorting Vorbereitung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen des Fragebogens </t>
+  </si>
+  <si>
+    <t>Alle Teammitgleider beteiligt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung Card Sorting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung Fragebogen </t>
   </si>
 </sst>
 </file>
@@ -815,11 +833,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK47"/>
+  <dimension ref="A1:AMK53"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9573,6 +9591,9 @@
       <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C45" s="14">
+        <v>0.125</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>31</v>
       </c>
@@ -9584,12 +9605,96 @@
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C46" s="14">
+        <v>0.125</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="C47" s="14"/>
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.2">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.2">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.2">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.2">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="C53" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t xml:space="preserve">Besprechung Fragebogen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personas und Szenarien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation </t>
+  </si>
+  <si>
+    <t>Projektdokumentation</t>
+  </si>
+  <si>
+    <t>Anforderungsanalyse</t>
   </si>
 </sst>
 </file>
@@ -833,11 +845,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK53"/>
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="9" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9694,7 +9706,32 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="C53" s="14"/>
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Anforderungsanalyse</t>
+  </si>
+  <si>
+    <t>Fragebogen überarbeiten</t>
+  </si>
+  <si>
+    <t>Dominik Bauer, Benedikt Häring, Johannes Vogl</t>
   </si>
 </sst>
 </file>
@@ -845,11 +851,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AMK56"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9733,6 +9739,34 @@
         <v>68</v>
       </c>
     </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.2">
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Dominik Bauer, Benedikt Häring, Johannes Vogl</t>
+  </si>
+  <si>
+    <t>Card Sorting Begriffe</t>
+  </si>
+  <si>
+    <t>Card Sorting Concept Codify</t>
   </si>
 </sst>
 </file>
@@ -851,11 +857,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AMK58"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="9" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9707,6 +9713,9 @@
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C52" s="14">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
@@ -9764,6 +9773,34 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.2">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Card Sorting Concept Codify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einarbeitung in MS Project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominik Bauer </t>
   </si>
 </sst>
 </file>
@@ -857,11 +863,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK58"/>
+  <dimension ref="A1:AMK59"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9272,169 +9278,169 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C21" s="14">
-        <v>0.14583333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="14">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C25" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C26" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="14">
-        <v>0.33333333333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C28" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="31.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.2">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C31" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.125</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="14">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
@@ -9442,13 +9448,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -9456,27 +9462,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="14">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="14">
-        <v>0.29166666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
@@ -9487,10 +9493,10 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C36" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
@@ -9498,41 +9504,41 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C37" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C39" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
@@ -9543,7 +9549,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C40" s="14">
         <v>4.1666666666666664E-2</v>
@@ -9554,41 +9560,41 @@
     </row>
     <row r="41" spans="1:4" ht="31.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C41" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.2">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.2">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="14">
         <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="14">
-        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
@@ -9596,7 +9602,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>49</v>
@@ -9605,29 +9611,29 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C45" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C46" s="14">
         <v>0.125</v>
@@ -9636,29 +9642,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="31.2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C47" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>31</v>
@@ -9666,111 +9672,111 @@
     </row>
     <row r="49" spans="1:4" ht="31.2">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.2">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="14">
-        <v>0.33333333333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="31.2">
       <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.2">
+      <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C52" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="14">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" s="14">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C56" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>31</v>
@@ -9778,29 +9784,43 @@
     </row>
     <row r="57" spans="1:4" ht="31.2">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C57" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="31.2">
       <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C59" s="14">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dominik Bauer </t>
+  </si>
+  <si>
+    <t>Erstellung des Projektplans</t>
+  </si>
+  <si>
+    <t>Update des Projektplans</t>
   </si>
 </sst>
 </file>
@@ -863,11 +869,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK59"/>
+  <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9322,125 +9328,125 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C26" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28" s="14">
-        <v>0.33333333333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C29" s="14">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C30" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.2">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="14">
-        <v>2.0833333333333332E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="31.2">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C32" s="14">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
@@ -9448,13 +9454,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C33" s="14">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -9462,27 +9468,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="31.2">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35" s="14">
-        <v>0.16666666666666666</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
@@ -9490,41 +9496,41 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C36" s="14">
-        <v>0.29166666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C37" s="14">
-        <v>0.16666666666666666</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>31</v>
@@ -9532,209 +9538,209 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="14">
-        <v>0.125</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C40" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C41" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C42" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="31.2">
-      <c r="A43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="14">
-        <v>4.1666666666666664E-2</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C44" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="31.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C45" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="31.2">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C46" s="14">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="31.2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C47" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="31.2">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C49" s="14">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="14">
         <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="31.2">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="14">
-        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="31.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C51" s="14">
-        <v>0.33333333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C52" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="31.2">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C53" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>31</v>
@@ -9742,55 +9748,55 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.2">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>69</v>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="14">
+    <row r="56" spans="1:4" ht="31.2">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="14">
-        <v>0.125</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.2">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C57" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>31</v>
@@ -9798,30 +9804,142 @@
     </row>
     <row r="58" spans="1:4" ht="31.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C58" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="14">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.2">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.2">
+      <c r="A65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C66" s="14">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="79">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -195,9 +195,6 @@
     <t xml:space="preserve">Projektplanung </t>
   </si>
   <si>
-    <t>Letzte Aktualisierung: 20.07.2015</t>
-  </si>
-  <si>
     <t>SRS Update</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Projektdokumentation</t>
   </si>
   <si>
-    <t>Anforderungsanalyse</t>
-  </si>
-  <si>
     <t>Fragebogen überarbeiten</t>
   </si>
   <si>
@@ -265,6 +259,15 @@
   </si>
   <si>
     <t>Update des Projektplans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen einer Sitemap der aktuellen RZ-Seite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedikt Häring, Fabian Huth, Johannes Vogl </t>
+  </si>
+  <si>
+    <t>Letzte Aktualisierung: 31.08.2015</t>
   </si>
 </sst>
 </file>
@@ -869,11 +872,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK67"/>
+  <dimension ref="A1:AMK70"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -3990,7 +3993,7 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5" s="8" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9286,10 +9289,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="14">
         <v>8.3333333333333329E-2</v>
@@ -9328,7 +9331,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -9340,15 +9343,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C25" s="14">
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>31</v>
@@ -9356,111 +9359,111 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="14">
-        <v>1.0416666666666666E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C28" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C29" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="31.2">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="14">
-        <v>1.0416666666666666E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31" s="14">
-        <v>0.33333333333333331</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C32" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="31.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -9468,55 +9471,55 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C35" s="14">
         <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="31.2">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="14">
-        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="31.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="14">
-        <v>0.125</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="14">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>31</v>
@@ -9524,13 +9527,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>31</v>
@@ -9538,27 +9541,27 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="14">
-        <v>1.0416666666666666E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="14">
-        <v>0.16666666666666666</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
@@ -9566,13 +9569,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="14">
-        <v>0.29166666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>27</v>
@@ -9583,10 +9586,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C42" s="14">
-        <v>0.16666666666666666</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
@@ -9594,41 +9597,41 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C43" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C45" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
@@ -9639,7 +9642,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C46" s="14">
         <v>4.1666666666666664E-2</v>
@@ -9650,41 +9653,41 @@
     </row>
     <row r="47" spans="1:4" ht="31.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C47" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="31.2">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.2">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="14">
         <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="14">
-        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>27</v>
@@ -9692,13 +9695,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C50" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>27</v>
@@ -9706,7 +9709,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
@@ -9715,46 +9718,46 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C52" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C53" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C54" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>31</v>
@@ -9762,41 +9765,41 @@
     </row>
     <row r="55" spans="1:4" ht="31.2">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C55" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="31.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C56" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.2">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="14">
-        <v>0.33333333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>31</v>
@@ -9807,94 +9810,94 @@
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C58" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="31.2">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C59" s="14">
-        <v>1.0416666666666666E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.2">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="14">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="14">
-        <v>8.3333333333333329E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C62" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C64" s="14">
         <v>0.125</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="31.2">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="14">
-        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>31</v>
@@ -9902,27 +9905,27 @@
     </row>
     <row r="65" spans="1:4" ht="31.2">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C65" s="14">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="31.2">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C66" s="14">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>31</v>
@@ -9930,15 +9933,55 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C68" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\workspace\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="kategorien" localSheetId="2">#REF!</definedName>
     <definedName name="kategorien">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Letzte Aktualisierung: 31.08.2015</t>
+  </si>
+  <si>
+    <t>Besprechung Arbeitsaufteilung</t>
   </si>
 </sst>
 </file>
@@ -860,9 +863,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="10.69921875"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -872,27 +875,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK70"/>
+  <dimension ref="A1:AMK71"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="9" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="20.19921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="20.25" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.69921875" style="1"/>
-    <col min="7" max="7" width="19.19921875" style="1"/>
-    <col min="8" max="8" width="14.69921875" style="1"/>
-    <col min="9" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="23.75" style="1"/>
+    <col min="7" max="7" width="19.25" style="1"/>
+    <col min="8" max="8" width="14.75" style="1"/>
+    <col min="9" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1918,7 +1921,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6047,7 +6050,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7073,7 +7076,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="21" hidden="1">
+    <row r="8" spans="1:1024" ht="20.25" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8099,7 +8102,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9133,7 +9136,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="31.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="31.2">
+    <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="31.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="31.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="31.2">
+    <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9301,7 +9304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
+    <row r="25" spans="1:4" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -9399,7 +9402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2">
+    <row r="29" spans="1:4" ht="31.5">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -9413,7 +9416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -9441,7 +9444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -9455,7 +9458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2">
+    <row r="33" spans="1:4" ht="31.5">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2">
+    <row r="46" spans="1:4" ht="31.5">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.2">
+    <row r="47" spans="1:4" ht="31.5">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -9679,7 +9682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9763,7 +9766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2">
+    <row r="55" spans="1:4" ht="31.5">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -9833,7 +9836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2">
+    <row r="65" spans="1:4" ht="31.5">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2">
+    <row r="66" spans="1:4" ht="31.5">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -9982,6 +9985,20 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10002,16 +10019,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="17.69921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="33.75" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="17.75" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.19921875" style="1"/>
-    <col min="7" max="7" width="14.69921875" style="1"/>
-    <col min="8" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="36.25" style="1"/>
+    <col min="7" max="7" width="14.75" style="1"/>
+    <col min="8" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -11040,7 +11057,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -11144,7 +11161,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="21">
+    <row r="8" spans="1:1024" ht="20.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -11153,7 +11170,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\workspace\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -863,9 +863,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1025" width="10.75"/>
+    <col min="1" max="1025" width="10.69921875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -878,24 +878,24 @@
   <dimension ref="A1:AMK71"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="20.25" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="20.19921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.75" style="1"/>
-    <col min="7" max="7" width="19.25" style="1"/>
-    <col min="8" max="8" width="14.75" style="1"/>
-    <col min="9" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="23.69921875" style="1"/>
+    <col min="7" max="7" width="19.19921875" style="1"/>
+    <col min="8" max="8" width="14.69921875" style="1"/>
+    <col min="9" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1921,7 +1921,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7076,7 +7076,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25" hidden="1">
+    <row r="8" spans="1:1024" ht="21" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8102,7 +8102,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" ht="31.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" ht="31.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" ht="31.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" ht="31.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="31.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5">
+    <row r="25" spans="1:4" ht="31.2">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.5">
+    <row r="29" spans="1:4" ht="31.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="31.2">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="31.2">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5">
+    <row r="33" spans="1:4" ht="31.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="31.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.5">
+    <row r="46" spans="1:4" ht="31.2">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.5">
+    <row r="47" spans="1:4" ht="31.2">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="31.2">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="31.2">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.5">
+    <row r="55" spans="1:4" ht="31.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="31.2">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="31.2">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="31.2">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="31.2">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.5">
+    <row r="65" spans="1:4" ht="31.2">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5">
+    <row r="66" spans="1:4" ht="31.2">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -9969,7 +9969,9 @@
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="14">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>31</v>
       </c>
@@ -10019,16 +10021,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.75" style="1"/>
-    <col min="2" max="2" width="24.75" style="1"/>
-    <col min="3" max="3" width="17.75" style="1"/>
-    <col min="4" max="4" width="27.75" style="1"/>
+    <col min="1" max="1" width="33.69921875" style="1"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="17.69921875" style="1"/>
+    <col min="4" max="4" width="27.69921875" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.25" style="1"/>
-    <col min="7" max="7" width="14.75" style="1"/>
-    <col min="8" max="1025" width="23.75" style="1"/>
+    <col min="6" max="6" width="36.19921875" style="1"/>
+    <col min="7" max="7" width="14.69921875" style="1"/>
+    <col min="8" max="1025" width="23.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -11057,7 +11059,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -11161,7 +11163,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="20.25">
+    <row r="8" spans="1:1024" ht="21">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -11170,7 +11172,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="20.25">
+    <row r="9" spans="1:1024" ht="21">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Besprechung Arbeitsaufteilung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation Piwik-Ergebnisse </t>
   </si>
 </sst>
 </file>
@@ -875,11 +878,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK71"/>
+  <dimension ref="A1:AMK72"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="9" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -10004,6 +10007,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentation Piwik-Ergebnisse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswertung Fragebogen </t>
+  </si>
+  <si>
+    <t>Auswertung Card Sorting</t>
+  </si>
+  <si>
+    <t>Prototyp erstellen</t>
+  </si>
+  <si>
+    <t>Verbesserung Personas und Szenarien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struktur für Prototyp erarbeiten </t>
+  </si>
+  <si>
+    <t>Prototyp erstellen Part 1</t>
   </si>
 </sst>
 </file>
@@ -878,11 +896,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK72"/>
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="9" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -10021,6 +10039,76 @@
         <v>31</v>
       </c>
     </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.2">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="101">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -288,10 +288,52 @@
     <t>Verbesserung Personas und Szenarien</t>
   </si>
   <si>
-    <t xml:space="preserve">Struktur für Prototyp erarbeiten </t>
+    <t>Prototyp erstellen Part 1</t>
   </si>
   <si>
-    <t>Prototyp erstellen Part 1</t>
+    <t>Tasks erstellt für Tests</t>
+  </si>
+  <si>
+    <t>Prototyp testen</t>
+  </si>
+  <si>
+    <t>Johannes Vogl, Benedikt Häring</t>
+  </si>
+  <si>
+    <t>Dokumentation erstellen</t>
+  </si>
+  <si>
+    <t>Dokumentation Content Analyse</t>
+  </si>
+  <si>
+    <t>Domink Bauer</t>
+  </si>
+  <si>
+    <t>Dokumenation Contexytual Inquiry ( mit erstellung des Ergebnisdokuments)</t>
+  </si>
+  <si>
+    <t>Erstellung Dokumenation Piwik und Log-Daten Analyse ( mit erstellung des Ergebnisdokuments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung Dokumentation des Fragebogen ( mit erstellung des Ergebnisdokuments) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation Card Sorting ( mit Ergebnisdokument)  </t>
+  </si>
+  <si>
+    <t>Prototyp erstellen Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototyp erstellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturlesen </t>
+  </si>
+  <si>
+    <t>Struktur für Prototyp erarbeiten Part 1</t>
+  </si>
+  <si>
+    <t>Struktur für Prototyp erarbeiten Part 2</t>
   </si>
 </sst>
 </file>
@@ -896,11 +938,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK77"/>
+  <dimension ref="A1:AMK87"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="9" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -9994,7 +10036,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -10083,7 +10125,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>49</v>
@@ -10097,7 +10139,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>49</v>
@@ -10107,6 +10149,146 @@
       </c>
       <c r="D77" s="1" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.2">
+      <c r="A79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="31.2">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="46.8">
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.2">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.2">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -26,12 +26,12 @@
     <definedName name="kategorien" localSheetId="2">#REF!</definedName>
     <definedName name="kategorien">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -335,6 +335,30 @@
   <si>
     <t>Struktur für Prototyp erarbeiten Part 2</t>
   </si>
+  <si>
+    <t>Prototyp verbessern</t>
+  </si>
+  <si>
+    <t>Protoyp erstellen</t>
+  </si>
+  <si>
+    <t>Konkurrenzanalyse schreiben</t>
+  </si>
+  <si>
+    <t>Heuristik Walkthrough</t>
+  </si>
+  <si>
+    <t>Bendikt Häring, Johannes Vogl</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>A-B Nutzertest Teil 1</t>
+  </si>
+  <si>
+    <t>Projekttreffen</t>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -449,6 +473,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -938,11 +965,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK87"/>
+  <dimension ref="A1:AMK94"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="9" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
@@ -10291,6 +10318,104 @@
         <v>89</v>
       </c>
     </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="15">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="31.2">
+      <c r="A91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.2">
+      <c r="A93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.2">
+      <c r="A94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mero\Desktop\redesign-ur-rz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\redesign-ur-rz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8490" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="110">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Projekttreffen</t>
+  </si>
+  <si>
+    <t>Dokumentation schreiben</t>
   </si>
 </sst>
 </file>
@@ -953,9 +956,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1025" width="10.69921875"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -965,27 +968,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK94"/>
+  <dimension ref="A1:AMK96"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="20.19921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="20.25" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="23.5" style="1"/>
-    <col min="6" max="6" width="23.69921875" style="1"/>
-    <col min="7" max="7" width="19.19921875" style="1"/>
-    <col min="8" max="8" width="14.69921875" style="1"/>
-    <col min="9" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="23.75" style="1"/>
+    <col min="7" max="7" width="19.25" style="1"/>
+    <col min="8" max="8" width="14.75" style="1"/>
+    <col min="9" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="19.2" customHeight="1">
+    <row r="1" spans="1:1024" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2011,7 +2014,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.95" customHeight="1">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="97.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6140,7 +6143,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="13.2" customHeight="1">
+    <row r="7" spans="1:1024" ht="13.15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7166,7 +7169,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="21" hidden="1">
+    <row r="8" spans="1:1024" ht="20.25" hidden="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8192,7 +8195,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -9226,7 +9229,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="31.2">
+    <row r="10" spans="1:1024">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="31.2">
+    <row r="12" spans="1:1024">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="31.2">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="31.2">
+    <row r="14" spans="1:1024">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="31.2">
+    <row r="16" spans="1:1024">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9366,7 +9369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -9408,7 +9411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2">
+    <row r="25" spans="1:4" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31.2">
+    <row r="29" spans="1:4" ht="31.5">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -9548,7 +9551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2">
+    <row r="33" spans="1:4" ht="31.5">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31.2">
+    <row r="46" spans="1:4" ht="31.5">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="31.2">
+    <row r="47" spans="1:4" ht="31.5">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -9758,7 +9761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="31.2">
+    <row r="55" spans="1:4" ht="31.5">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="31.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -9898,7 +9901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="31.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -9912,7 +9915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="31.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="31.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="31.2">
+    <row r="65" spans="1:4" ht="31.5">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -10010,7 +10013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.2">
+    <row r="66" spans="1:4" ht="31.5">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="31.2">
+    <row r="75" spans="1:4" ht="31.5">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -10192,7 +10195,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="31.2">
+    <row r="79" spans="1:4" ht="31.5">
       <c r="A79" s="1" t="s">
         <v>66</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="31.2">
+    <row r="81" spans="1:4" ht="31.5">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="46.8">
+    <row r="82" spans="1:4" ht="47.25">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="31.2">
+    <row r="83" spans="1:4" ht="31.5">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -10262,7 +10265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="31.2">
+    <row r="84" spans="1:4" ht="31.5">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="31.2">
+    <row r="91" spans="1:4" ht="31.5">
       <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="31.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -10402,7 +10405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="31.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>108</v>
       </c>
@@ -10414,6 +10417,34 @@
       </c>
       <c r="D94" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -10433,16 +10464,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.69921875" style="1"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="17.69921875" style="1"/>
-    <col min="4" max="4" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="33.75" style="1"/>
+    <col min="2" max="2" width="24.75" style="1"/>
+    <col min="3" max="3" width="17.75" style="1"/>
+    <col min="4" max="4" width="27.75" style="1"/>
     <col min="5" max="5" width="17.5" style="1"/>
-    <col min="6" max="6" width="36.19921875" style="1"/>
-    <col min="7" max="7" width="14.69921875" style="1"/>
-    <col min="8" max="1025" width="23.69921875" style="1"/>
+    <col min="6" max="6" width="36.25" style="1"/>
+    <col min="7" max="7" width="14.75" style="1"/>
+    <col min="8" max="1025" width="23.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
@@ -11471,7 +11502,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="7" customFormat="1" ht="28.2">
+    <row r="2" spans="1:1024" s="7" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -11575,7 +11606,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:1024" ht="21">
+    <row r="8" spans="1:1024" ht="20.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -11584,7 +11615,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:1024" ht="21">
+    <row r="9" spans="1:1024" ht="20.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>

--- a/Arbeitsaufgaben_und_Aktivitäten.xlsx
+++ b/Arbeitsaufgaben_und_Aktivitäten.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="112">
   <si>
     <t>Aktivitäten und To-dos</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>Dokumentation schreiben</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -968,11 +974,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK96"/>
+  <dimension ref="A1:AMK97"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="9" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -10447,6 +10453,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
